--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -103,6 +103,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -149,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -198,7 +208,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H29"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,10 +282,11 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="b">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -307,7 +318,7 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -316,13 +327,14 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="b">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -333,7 +345,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -342,13 +354,14 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="b">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -371,10 +384,11 @@
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="b">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -385,7 +399,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -394,13 +408,14 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -411,7 +426,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -420,13 +435,14 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="b">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -449,10 +465,11 @@
       <c r="F8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="b">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -463,7 +480,7 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -472,13 +489,14 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="b">
+      <c r="F9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -489,7 +507,7 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -498,13 +516,14 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="b">
+      <c r="F10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -527,10 +546,11 @@
       <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="b">
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -541,7 +561,7 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -550,13 +570,14 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="b">
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -567,7 +588,7 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="6" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -576,13 +597,14 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="b">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -605,10 +627,11 @@
       <c r="F14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="b">
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -619,7 +642,7 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -628,13 +651,14 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="b">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -645,7 +669,7 @@
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -654,13 +678,14 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="b">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -683,10 +708,11 @@
       <c r="F17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="b">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -697,7 +723,7 @@
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="6" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -706,13 +732,14 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="b">
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -723,7 +750,7 @@
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="6" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -732,13 +759,14 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="b">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -761,10 +789,11 @@
       <c r="F20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="b">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -775,7 +804,7 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="6" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -784,13 +813,14 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="b">
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -801,7 +831,7 @@
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -810,13 +840,14 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="b">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -839,10 +870,11 @@
       <c r="F23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="b">
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -853,7 +885,7 @@
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="6" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -862,13 +894,14 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="b">
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -879,7 +912,7 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="6" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -888,13 +921,14 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="b">
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -917,10 +951,11 @@
       <c r="F26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="b">
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -931,7 +966,7 @@
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="6" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -940,13 +975,14 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="b">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -957,7 +993,7 @@
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="6" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -966,13 +1002,14 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="b">
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -995,10 +1032,11 @@
       <c r="F29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="b">
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_12.20.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_12.20.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -285,8 +285,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -333,8 +332,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -360,8 +358,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -387,8 +384,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -414,8 +410,7 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -441,8 +436,7 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -468,8 +462,7 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -495,8 +488,7 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -522,8 +514,7 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -549,8 +540,7 @@
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -576,8 +566,7 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -603,8 +592,7 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -630,8 +618,7 @@
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -657,8 +644,7 @@
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -684,8 +670,7 @@
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -711,8 +696,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -738,8 +722,7 @@
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -765,8 +748,7 @@
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,8 +774,7 @@
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -819,8 +800,7 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -846,8 +826,7 @@
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -873,8 +852,7 @@
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -900,8 +878,7 @@
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -927,8 +904,7 @@
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -954,8 +930,7 @@
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -981,8 +956,7 @@
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1008,8 +982,7 @@
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1035,8 +1008,7 @@
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
